--- a/diabetes/prevalence/Florida.xlsx
+++ b/diabetes/prevalence/Florida.xlsx
@@ -1,28 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cdc.gov\project\CCHP_NCCD_DDT_Data1\epistat\KAK\Single map county data by state\DMPREV2013\compliance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosabreu/Desktop/analise_de_midias/diabetes/prevalence/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528E95E3-A5F0-8E45-8436-C0D44CEDBB42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25200" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_Florida" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">data_Florida!$BW$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">data_Florida!$BW$6:$BW$15</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">data_Florida!$BX$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">data_Florida!$BX$6:$BX$15</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">data_Florida!$BW$5</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">data_Florida!$BW$6:$BW$15</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">data_Florida!$BX$5</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">data_Florida!$BX$6:$BX$15</definedName>
     <definedName name="IDX" localSheetId="0">data_Florida!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="149">
   <si>
     <t>Diagnosed Diabetes Prevalence</t>
   </si>
@@ -461,11 +477,20 @@
   <si>
     <t>Washington County</t>
   </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Número Total de casos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Média </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\_x0000_.0"/>
   </numFmts>
@@ -1176,7 +1201,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1238,58 +1263,61 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperlink" xfId="42" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="43" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1302,6 +1330,937 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data_Florida!$BX$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Número Total de casos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data_Florida!$BW$6:$BW$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data_Florida!$BX$6:$BX$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1083170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1124046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1225957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1268332.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1349523</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1444073</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1492684</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1532619</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1546294</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1591871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEFE-7C42-A88D-2A54E27DB0C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1754588639"/>
+        <c:axId val="1754590271"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1754588639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1754590271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1754590271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1754588639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011F4E67-08A9-6141-9858-2FF3F2C8F26E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1566,93 +2525,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:BU71"/>
+  <dimension ref="A2:BY71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BT2" workbookViewId="0">
+      <selection activeCell="BZ25" sqref="BZ25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.1640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="8" style="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.1640625" style="1" customWidth="1"/>
     <col min="33" max="33" width="8" style="1" customWidth="1"/>
-    <col min="34" max="34" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.140625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1640625" style="1" customWidth="1"/>
     <col min="40" max="40" width="8" style="1" customWidth="1"/>
-    <col min="41" max="41" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.140625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.1640625" style="1" customWidth="1"/>
     <col min="47" max="47" width="8" style="1" customWidth="1"/>
-    <col min="48" max="48" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.140625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.1640625" style="1" customWidth="1"/>
     <col min="54" max="54" width="8" style="1" customWidth="1"/>
-    <col min="55" max="55" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.140625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.1640625" style="1" customWidth="1"/>
     <col min="61" max="61" width="8" style="1" customWidth="1"/>
-    <col min="62" max="62" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.140625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="8.1640625" style="1" customWidth="1"/>
     <col min="68" max="68" width="8" style="1" customWidth="1"/>
-    <col min="69" max="69" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.140625" style="1"/>
+    <col min="73" max="73" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:73" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:73" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+    <row r="2" spans="1:77" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:77" ht="18" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="20"/>
@@ -1746,9 +2707,9 @@
       <c r="BR3" s="19"/>
       <c r="BS3" s="19"/>
       <c r="BT3" s="19"/>
-      <c r="BU3" s="22"/>
+      <c r="BU3" s="21"/>
     </row>
-    <row r="4" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -1969,7 +2930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -2189,8 +3150,17 @@
       <c r="BU5" s="11">
         <v>10.1</v>
       </c>
+      <c r="BW5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -2410,8 +3380,19 @@
       <c r="BU6" s="11">
         <v>14.3</v>
       </c>
+      <c r="BW6" s="1">
+        <v>2004</v>
+      </c>
+      <c r="BX6" s="23">
+        <f>SUM(D5:D90)</f>
+        <v>1083170</v>
+      </c>
+      <c r="BY6" s="23">
+        <f>AVERAGE(E5:E90)</f>
+        <v>8.6194029850746254</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -2631,8 +3612,19 @@
       <c r="BU7" s="11">
         <v>11.5</v>
       </c>
+      <c r="BW7" s="1">
+        <v>2005</v>
+      </c>
+      <c r="BX7" s="1">
+        <f>SUM(K5:K90)</f>
+        <v>1124046</v>
+      </c>
+      <c r="BY7" s="23">
+        <f>AVERAGE(L5:L90)</f>
+        <v>8.8940298507462678</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -2852,8 +3844,19 @@
       <c r="BU8" s="11">
         <v>14.8</v>
       </c>
+      <c r="BW8" s="1">
+        <v>2006</v>
+      </c>
+      <c r="BX8" s="23">
+        <f>SUM(R5:R90)</f>
+        <v>1225957</v>
+      </c>
+      <c r="BY8" s="23">
+        <f>AVERAGE(S5:S90)</f>
+        <v>9.8089552238805968</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -3073,8 +4076,19 @@
       <c r="BU9" s="11">
         <v>10.4</v>
       </c>
+      <c r="BW9" s="1">
+        <v>2007</v>
+      </c>
+      <c r="BX9" s="23">
+        <f>SUM(Y5:Y90)</f>
+        <v>1268332.2</v>
+      </c>
+      <c r="BY9" s="23">
+        <f>AVERAGE(Z5:Z90)</f>
+        <v>10.137313432835819</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -3294,8 +4308,19 @@
       <c r="BU10" s="11">
         <v>9.5</v>
       </c>
+      <c r="BW10" s="1">
+        <v>2008</v>
+      </c>
+      <c r="BX10" s="1">
+        <f>SUM(AF5:AF90)</f>
+        <v>1349523</v>
+      </c>
+      <c r="BY10" s="23">
+        <f>AVERAGE(AG5:AG90)</f>
+        <v>10.355223880597018</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -3515,8 +4540,19 @@
       <c r="BU11" s="11">
         <v>16.3</v>
       </c>
+      <c r="BW11" s="1">
+        <v>2009</v>
+      </c>
+      <c r="BX11" s="23">
+        <f>SUM(AM5:AM90)</f>
+        <v>1444073</v>
+      </c>
+      <c r="BY11" s="23">
+        <f>AVERAGE(AN5:AN90)</f>
+        <v>11.261194029850742</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3736,8 +4772,19 @@
       <c r="BU12" s="11">
         <v>11.1</v>
       </c>
+      <c r="BW12" s="1">
+        <v>2010</v>
+      </c>
+      <c r="BX12" s="23">
+        <f>SUM(AT5:AT90)</f>
+        <v>1492684</v>
+      </c>
+      <c r="BY12" s="23">
+        <f>AVERAGE(AU5:AU90)</f>
+        <v>11.598507462686568</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -3957,8 +5004,19 @@
       <c r="BU13" s="11">
         <v>11.7</v>
       </c>
+      <c r="BW13" s="1">
+        <v>2011</v>
+      </c>
+      <c r="BX13" s="1">
+        <f>SUM(BA5:BA90)</f>
+        <v>1532619</v>
+      </c>
+      <c r="BY13" s="23">
+        <f>AVERAGE(BB5:BB90)</f>
+        <v>11.880597014925373</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -4178,8 +5236,19 @@
       <c r="BU14" s="11">
         <v>12.6</v>
       </c>
+      <c r="BW14" s="1">
+        <v>2012</v>
+      </c>
+      <c r="BX14" s="23">
+        <f>SUM(BH5:BH90)</f>
+        <v>1546294</v>
+      </c>
+      <c r="BY14" s="23">
+        <f>AVERAGE(BI5:BI90)</f>
+        <v>12.007462686567166</v>
+      </c>
     </row>
-    <row r="15" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
@@ -4399,8 +5468,19 @@
       <c r="BU15" s="11">
         <v>7.4</v>
       </c>
+      <c r="BW15" s="1">
+        <v>2013</v>
+      </c>
+      <c r="BX15" s="23">
+        <f>SUM(BO5:BO90)</f>
+        <v>1591871</v>
+      </c>
+      <c r="BY15" s="23">
+        <f>AVERAGE(BP6:BP90)</f>
+        <v>12.09090909090909</v>
+      </c>
     </row>
-    <row r="16" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:77" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
@@ -4621,7 +5701,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="17" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
@@ -4842,7 +5922,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="18" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -5063,7 +6143,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="19" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
@@ -5284,7 +6364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -5505,7 +6585,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="21" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>11</v>
       </c>
@@ -5726,7 +6806,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="22" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>11</v>
       </c>
@@ -5947,7 +7027,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="23" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
@@ -6168,7 +7248,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>11</v>
       </c>
@@ -6389,7 +7469,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="25" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
@@ -6610,7 +7690,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="26" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>11</v>
       </c>
@@ -6831,7 +7911,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="27" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
@@ -7052,7 +8132,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="28" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>11</v>
       </c>
@@ -7273,7 +8353,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="29" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>11</v>
       </c>
@@ -7494,7 +8574,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="30" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>11</v>
       </c>
@@ -7715,7 +8795,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="31" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>11</v>
       </c>
@@ -7936,7 +9016,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="32" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>11</v>
       </c>
@@ -8157,7 +9237,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="33" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>11</v>
       </c>
@@ -8378,7 +9458,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="34" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>11</v>
       </c>
@@ -8599,7 +9679,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>11</v>
       </c>
@@ -8820,7 +9900,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="36" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>11</v>
       </c>
@@ -9041,7 +10121,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="37" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
@@ -9262,7 +10342,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="38" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>11</v>
       </c>
@@ -9483,7 +10563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>11</v>
       </c>
@@ -9704,7 +10784,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="40" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>11</v>
       </c>
@@ -9925,7 +11005,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="41" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>11</v>
       </c>
@@ -10146,7 +11226,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="42" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>11</v>
       </c>
@@ -10367,7 +11447,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="43" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>11</v>
       </c>
@@ -10588,7 +11668,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="44" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
         <v>11</v>
       </c>
@@ -10809,7 +11889,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="45" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>11</v>
       </c>
@@ -11030,7 +12110,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="46" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>11</v>
       </c>
@@ -11251,7 +12331,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
@@ -11472,7 +12552,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>11</v>
       </c>
@@ -11693,7 +12773,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="49" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>11</v>
       </c>
@@ -11914,7 +12994,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="50" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>11</v>
       </c>
@@ -12135,7 +13215,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="51" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
@@ -12356,7 +13436,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="52" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>11</v>
       </c>
@@ -12577,7 +13657,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="53" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>11</v>
       </c>
@@ -12798,7 +13878,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="54" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>11</v>
       </c>
@@ -13019,7 +14099,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="55" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
@@ -13240,7 +14320,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="56" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>11</v>
       </c>
@@ -13461,7 +14541,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="57" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>11</v>
       </c>
@@ -13682,7 +14762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>11</v>
       </c>
@@ -13903,7 +14983,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="59" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>11</v>
       </c>
@@ -14124,7 +15204,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="60" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>11</v>
       </c>
@@ -14345,7 +15425,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="61" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>11</v>
       </c>
@@ -14566,7 +15646,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="62" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
         <v>11</v>
       </c>
@@ -14787,7 +15867,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="63" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>11</v>
       </c>
@@ -15008,7 +16088,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="64" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>11</v>
       </c>
@@ -15229,7 +16309,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="65" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
@@ -15450,7 +16530,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="66" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
         <v>11</v>
       </c>
@@ -15671,7 +16751,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="67" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>11</v>
       </c>
@@ -15892,7 +16972,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="68" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
         <v>11</v>
       </c>
@@ -16113,7 +17193,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="69" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
@@ -16334,7 +17414,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="70" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
         <v>11</v>
       </c>
@@ -16555,7 +17635,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="71" spans="1:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:73" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
         <v>11</v>
       </c>
@@ -16778,19 +17858,20 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AT3:AZ3"/>
-    <mergeCell ref="BA3:BG3"/>
-    <mergeCell ref="BH3:BN3"/>
-    <mergeCell ref="BO3:BU3"/>
     <mergeCell ref="AF3:AL3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="K3:Q3"/>
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AT3:AZ3"/>
+    <mergeCell ref="BA3:BG3"/>
+    <mergeCell ref="BH3:BN3"/>
+    <mergeCell ref="BO3:BU3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/diabetes/prevalence/Florida.xlsx
+++ b/diabetes/prevalence/Florida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosabreu/Desktop/analise_de_midias/diabetes/prevalence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528E95E3-A5F0-8E45-8436-C0D44CEDBB42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABE58EF-966C-4A44-AE9C-74AA35091E7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25200" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,6 @@
     <sheet name="data_Florida" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">data_Florida!$BW$5</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">data_Florida!$BW$6:$BW$15</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">data_Florida!$BX$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">data_Florida!$BX$6:$BX$15</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">data_Florida!$BW$5</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">data_Florida!$BW$6:$BW$15</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">data_Florida!$BX$5</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">data_Florida!$BX$6:$BX$15</definedName>
     <definedName name="IDX" localSheetId="0">data_Florida!$A$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="154">
   <si>
     <t>Diagnosed Diabetes Prevalence</t>
   </si>
@@ -484,7 +476,22 @@
     <t>Número Total de casos</t>
   </si>
   <si>
-    <t xml:space="preserve">Média </t>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Média (Lower)</t>
+  </si>
+  <si>
+    <t>Média(Upper</t>
+  </si>
+  <si>
+    <t>Numero de pessoas</t>
+  </si>
+  <si>
+    <t>Numero L</t>
+  </si>
+  <si>
+    <t>Numero H</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1208,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1254,6 +1261,9 @@
     <xf numFmtId="164" fontId="23" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1269,7 +1279,7 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1330,937 +1340,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data_Florida!$BX$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Número Total de casos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent1"/>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>data_Florida!$BW$6:$BW$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2013</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>data_Florida!$BX$6:$BX$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1083170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1124046</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1225957</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1268332.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1349523</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1444073</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1492684</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1532619</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1546294</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1591871</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FEFE-7C42-A88D-2A54E27DB0C8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1"/>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="lt1">
-                      <a:alpha val="0"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:smooth val="0"/>
-        <c:axId val="1754588639"/>
-        <c:axId val="1754590271"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1754588639"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1754590271"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1754590271"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1754588639"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="accent1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-      <a:effectLst>
-        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-          <a:schemeClr val="phClr"/>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="22225">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="35000"/>
-          <a:lumOff val="65000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:alpha val="0"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="25400">
-          <a:schemeClr val="lt1"/>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:tint val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>84</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011F4E67-08A9-6141-9858-2FF3F2C8F26E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2527,10 +1606,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:BY71"/>
+  <dimension ref="A2:CD71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="BT2" workbookViewId="0">
-      <selection activeCell="BZ25" sqref="BZ25"/>
+      <selection activeCell="BW3" sqref="BW3:CD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -2611,105 +1690,129 @@
     <col min="74" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:77" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:77" ht="18" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+    <row r="2" spans="1:82" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:82" ht="18" x14ac:dyDescent="0.15">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="18">
+      <c r="D3" s="19">
         <v>2004</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="18">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="19">
         <v>2005</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="18">
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="19">
         <v>2006</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="18">
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="19">
         <v>2007</v>
       </c>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="18">
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="19">
         <v>2008</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="18">
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="19">
         <v>2009</v>
       </c>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="18">
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="19">
         <v>2010</v>
       </c>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="18">
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="21"/>
+      <c r="BA3" s="19">
         <v>2011</v>
       </c>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="18">
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="21"/>
+      <c r="BH3" s="19">
         <v>2012</v>
       </c>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="19"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="20"/>
-      <c r="BO3" s="18">
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="21"/>
+      <c r="BO3" s="19">
         <v>2013</v>
       </c>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="19"/>
-      <c r="BR3" s="19"/>
-      <c r="BS3" s="19"/>
-      <c r="BT3" s="19"/>
-      <c r="BU3" s="21"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="22"/>
+      <c r="BW3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="4" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -2929,8 +2032,39 @@
       <c r="BU4" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="BW4" s="1">
+        <v>2004</v>
+      </c>
+      <c r="BX4" s="18">
+        <f>SUM(D5:D300)</f>
+        <v>1083170</v>
+      </c>
+      <c r="BY4" s="18">
+        <f>AVERAGE(E5:E300)</f>
+        <v>8.6194029850746254</v>
+      </c>
+      <c r="BZ4" s="18">
+        <f>AVERAGE(F5:F300)</f>
+        <v>6.8895522388059716</v>
+      </c>
+      <c r="CA4" s="18">
+        <f>AVERAGE(G5:G300)</f>
+        <v>10.702985074626866</v>
+      </c>
+      <c r="CB4" s="24">
+        <f>BX4*100/BY4</f>
+        <v>12566647.619047621</v>
+      </c>
+      <c r="CC4" s="1">
+        <f>BZ4/100*CB4</f>
+        <v>865785.75238095259</v>
+      </c>
+      <c r="CD4" s="1">
+        <f>CA4/100*CB4</f>
+        <v>1345006.4190476194</v>
+      </c>
     </row>
-    <row r="5" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -3150,17 +2284,39 @@
       <c r="BU5" s="11">
         <v>10.1</v>
       </c>
-      <c r="BW5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="BX5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY5" s="1" t="s">
-        <v>148</v>
+      <c r="BW5" s="1">
+        <v>2005</v>
+      </c>
+      <c r="BX5" s="1">
+        <f>SUM(K5:K300)</f>
+        <v>1124046</v>
+      </c>
+      <c r="BY5" s="18">
+        <f>AVERAGE(L5:L300)</f>
+        <v>8.8940298507462678</v>
+      </c>
+      <c r="BZ5" s="18">
+        <f>AVERAGE(M5:M300)</f>
+        <v>7.0716417910447777</v>
+      </c>
+      <c r="CA5" s="18">
+        <f>AVERAGE(N5:N300)</f>
+        <v>11.071641791044772</v>
+      </c>
+      <c r="CB5" s="24">
+        <f t="shared" ref="CB5:CB13" si="0">BX5*100/BY5</f>
+        <v>12638208.088605471</v>
+      </c>
+      <c r="CC5" s="1">
+        <f t="shared" ref="CC5:CC13" si="1">BZ5/100*CB5</f>
+        <v>893728.8048330259</v>
+      </c>
+      <c r="CD5" s="1">
+        <f t="shared" ref="CD5:CD13" si="2">CA5/100*CB5</f>
+        <v>1399257.1283772441</v>
       </c>
     </row>
-    <row r="6" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -3381,18 +2537,38 @@
         <v>14.3</v>
       </c>
       <c r="BW6" s="1">
-        <v>2004</v>
-      </c>
-      <c r="BX6" s="23">
-        <f>SUM(D5:D90)</f>
-        <v>1083170</v>
-      </c>
-      <c r="BY6" s="23">
-        <f>AVERAGE(E5:E90)</f>
-        <v>8.6194029850746254</v>
+        <v>2006</v>
+      </c>
+      <c r="BX6" s="18">
+        <f>SUM(R5:R300)</f>
+        <v>1225957</v>
+      </c>
+      <c r="BY6" s="18">
+        <f>AVERAGE(S5:S300)</f>
+        <v>9.8089552238805968</v>
+      </c>
+      <c r="BZ6" s="18">
+        <f>AVERAGE(T5:T300)</f>
+        <v>8.2089552238805972</v>
+      </c>
+      <c r="CA6" s="18">
+        <f>AVERAGE(U5:U300)</f>
+        <v>11.6</v>
+      </c>
+      <c r="CB6" s="24">
+        <f t="shared" si="0"/>
+        <v>12498344.339622641</v>
+      </c>
+      <c r="CC6" s="1">
+        <f t="shared" si="1"/>
+        <v>1025983.4905660377</v>
+      </c>
+      <c r="CD6" s="1">
+        <f t="shared" si="2"/>
+        <v>1449807.9433962263</v>
       </c>
     </row>
-    <row r="7" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -3613,18 +2789,38 @@
         <v>11.5</v>
       </c>
       <c r="BW7" s="1">
-        <v>2005</v>
-      </c>
-      <c r="BX7" s="1">
-        <f>SUM(K5:K90)</f>
-        <v>1124046</v>
-      </c>
-      <c r="BY7" s="23">
-        <f>AVERAGE(L5:L90)</f>
-        <v>8.8940298507462678</v>
+        <v>2007</v>
+      </c>
+      <c r="BX7" s="18">
+        <f>SUM(Y5:Y300)</f>
+        <v>1268332.2</v>
+      </c>
+      <c r="BY7" s="18">
+        <f>AVERAGE(Z5:Z300)</f>
+        <v>10.137313432835819</v>
+      </c>
+      <c r="BZ7" s="18">
+        <f>AVERAGE(AA5:AA300)</f>
+        <v>8.5850746268656728</v>
+      </c>
+      <c r="CA7" s="18">
+        <f>AVERAGE(AB5:AB300)</f>
+        <v>11.87313432835821</v>
+      </c>
+      <c r="CB7" s="24">
+        <f t="shared" si="0"/>
+        <v>12511521.996466434</v>
+      </c>
+      <c r="CC7" s="1">
+        <f t="shared" si="1"/>
+        <v>1074123.5003533573</v>
+      </c>
+      <c r="CD7" s="1">
+        <f t="shared" si="2"/>
+        <v>1485509.8131625447</v>
       </c>
     </row>
-    <row r="8" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -3845,18 +3041,38 @@
         <v>14.8</v>
       </c>
       <c r="BW8" s="1">
-        <v>2006</v>
-      </c>
-      <c r="BX8" s="23">
-        <f>SUM(R5:R90)</f>
-        <v>1225957</v>
-      </c>
-      <c r="BY8" s="23">
-        <f>AVERAGE(S5:S90)</f>
-        <v>9.8089552238805968</v>
+        <v>2008</v>
+      </c>
+      <c r="BX8" s="1">
+        <f>SUM(AF5:AF300)</f>
+        <v>1349523</v>
+      </c>
+      <c r="BY8" s="18">
+        <f>AVERAGE(AG5:AG300)</f>
+        <v>10.355223880597018</v>
+      </c>
+      <c r="BZ8" s="18">
+        <f>AVERAGE(AH5:AH300)</f>
+        <v>8.79253731343284</v>
+      </c>
+      <c r="CA8" s="18">
+        <f>AVERAGE(AI5:AI300)</f>
+        <v>12.086567164179105</v>
+      </c>
+      <c r="CB8" s="24">
+        <f t="shared" si="0"/>
+        <v>13032291.870856151</v>
+      </c>
+      <c r="CC8" s="1">
+        <f t="shared" si="1"/>
+        <v>1145869.1255405017</v>
+      </c>
+      <c r="CD8" s="1">
+        <f t="shared" si="2"/>
+        <v>1575156.7100028822</v>
       </c>
     </row>
-    <row r="9" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -4077,18 +3293,38 @@
         <v>10.4</v>
       </c>
       <c r="BW9" s="1">
-        <v>2007</v>
-      </c>
-      <c r="BX9" s="23">
-        <f>SUM(Y5:Y90)</f>
-        <v>1268332.2</v>
-      </c>
-      <c r="BY9" s="23">
-        <f>AVERAGE(Z5:Z90)</f>
-        <v>10.137313432835819</v>
+        <v>2009</v>
+      </c>
+      <c r="BX9" s="18">
+        <f>SUM(AM5:AM300)</f>
+        <v>1444073</v>
+      </c>
+      <c r="BY9" s="18">
+        <f>AVERAGE(AN5:AN300)</f>
+        <v>11.261194029850742</v>
+      </c>
+      <c r="BZ9" s="18">
+        <f>AVERAGE(AO5:AO300)</f>
+        <v>9.6850746268656724</v>
+      </c>
+      <c r="CA9" s="18">
+        <f>AVERAGE(AP5:AP300)</f>
+        <v>12.967164179104479</v>
+      </c>
+      <c r="CB9" s="24">
+        <f t="shared" si="0"/>
+        <v>12823444.797879396</v>
+      </c>
+      <c r="CC9" s="1">
+        <f t="shared" si="1"/>
+        <v>1241960.1984095434</v>
+      </c>
+      <c r="CD9" s="1">
+        <f t="shared" si="2"/>
+        <v>1662837.1403578538</v>
       </c>
     </row>
-    <row r="10" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -4309,18 +3545,38 @@
         <v>9.5</v>
       </c>
       <c r="BW10" s="1">
-        <v>2008</v>
-      </c>
-      <c r="BX10" s="1">
-        <f>SUM(AF5:AF90)</f>
-        <v>1349523</v>
-      </c>
-      <c r="BY10" s="23">
-        <f>AVERAGE(AG5:AG90)</f>
-        <v>10.355223880597018</v>
+        <v>2010</v>
+      </c>
+      <c r="BX10" s="18">
+        <f>SUM(AT5:AT300)</f>
+        <v>1492684</v>
+      </c>
+      <c r="BY10" s="18">
+        <f>AVERAGE(AU5:AU6300)</f>
+        <v>11.598507462686568</v>
+      </c>
+      <c r="BZ10" s="18">
+        <f>AVERAGE(AV5:AV6300)</f>
+        <v>9.9776119402985071</v>
+      </c>
+      <c r="CA10" s="18">
+        <f>AVERAGE(AW5:AW6300)</f>
+        <v>13.373134328358203</v>
+      </c>
+      <c r="CB10" s="24">
+        <f t="shared" si="0"/>
+        <v>12869621.412945567</v>
+      </c>
+      <c r="CC10" s="1">
+        <f t="shared" si="1"/>
+        <v>1284080.8827692703</v>
+      </c>
+      <c r="CD10" s="1">
+        <f t="shared" si="2"/>
+        <v>1721071.7591043615</v>
       </c>
     </row>
-    <row r="11" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -4541,18 +3797,38 @@
         <v>16.3</v>
       </c>
       <c r="BW11" s="1">
-        <v>2009</v>
-      </c>
-      <c r="BX11" s="23">
-        <f>SUM(AM5:AM90)</f>
-        <v>1444073</v>
-      </c>
-      <c r="BY11" s="23">
-        <f>AVERAGE(AN5:AN90)</f>
-        <v>11.261194029850742</v>
+        <v>2011</v>
+      </c>
+      <c r="BX11" s="1">
+        <f>SUM(BA5:BA300)</f>
+        <v>1532619</v>
+      </c>
+      <c r="BY11" s="18">
+        <f>AVERAGE(BB5:BB300)</f>
+        <v>11.880597014925373</v>
+      </c>
+      <c r="BZ11" s="18">
+        <f>AVERAGE(BC5:BC300)</f>
+        <v>10.170149253731338</v>
+      </c>
+      <c r="CA11" s="18">
+        <f>AVERAGE(BD5:BD300)</f>
+        <v>13.771641791044775</v>
+      </c>
+      <c r="CB11" s="24">
+        <f t="shared" si="0"/>
+        <v>12900185.050251257</v>
+      </c>
+      <c r="CC11" s="1">
+        <f t="shared" si="1"/>
+        <v>1311968.0736180898</v>
+      </c>
+      <c r="CD11" s="1">
+        <f t="shared" si="2"/>
+        <v>1776567.2755025125</v>
       </c>
     </row>
-    <row r="12" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -4773,18 +4049,38 @@
         <v>11.1</v>
       </c>
       <c r="BW12" s="1">
-        <v>2010</v>
-      </c>
-      <c r="BX12" s="23">
-        <f>SUM(AT5:AT90)</f>
-        <v>1492684</v>
-      </c>
-      <c r="BY12" s="23">
-        <f>AVERAGE(AU5:AU90)</f>
-        <v>11.598507462686568</v>
+        <v>2012</v>
+      </c>
+      <c r="BX12" s="18">
+        <f>SUM(BH5:BH300)</f>
+        <v>1546294</v>
+      </c>
+      <c r="BY12" s="18">
+        <f>AVERAGE(BI5:BI300)</f>
+        <v>12.007462686567166</v>
+      </c>
+      <c r="BZ12" s="18">
+        <f>AVERAGE(BJ5:BJ300)</f>
+        <v>10.247761194029847</v>
+      </c>
+      <c r="CA12" s="18">
+        <f>AVERAGE(BK5:BK300)</f>
+        <v>13.94776119402985</v>
+      </c>
+      <c r="CB12" s="24">
+        <f t="shared" si="0"/>
+        <v>12877774.766935984</v>
+      </c>
+      <c r="CC12" s="1">
+        <f t="shared" si="1"/>
+        <v>1319683.6052206333</v>
+      </c>
+      <c r="CD12" s="1">
+        <f t="shared" si="2"/>
+        <v>1796161.2715972653</v>
       </c>
     </row>
-    <row r="13" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -5005,18 +4301,38 @@
         <v>11.7</v>
       </c>
       <c r="BW13" s="1">
-        <v>2011</v>
-      </c>
-      <c r="BX13" s="1">
-        <f>SUM(BA5:BA90)</f>
-        <v>1532619</v>
-      </c>
-      <c r="BY13" s="23">
-        <f>AVERAGE(BB5:BB90)</f>
-        <v>11.880597014925373</v>
+        <v>2013</v>
+      </c>
+      <c r="BX13" s="18">
+        <f>SUM(BO5:BO300)</f>
+        <v>1591871</v>
+      </c>
+      <c r="BY13" s="18">
+        <f>AVERAGE(BP6:BP300)</f>
+        <v>12.09090909090909</v>
+      </c>
+      <c r="BZ13" s="18">
+        <f>AVERAGE(BQ6:BQ300)</f>
+        <v>10.251515151515152</v>
+      </c>
+      <c r="CA13" s="18">
+        <f>AVERAGE(BR6:BR300)</f>
+        <v>14.098484848484844</v>
+      </c>
+      <c r="CB13" s="24">
+        <f t="shared" si="0"/>
+        <v>13165850.37593985</v>
+      </c>
+      <c r="CC13" s="1">
+        <f t="shared" si="1"/>
+        <v>1349699.1461152884</v>
+      </c>
+      <c r="CD13" s="1">
+        <f t="shared" si="2"/>
+        <v>1856185.4204260646</v>
       </c>
     </row>
-    <row r="14" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -5236,19 +4552,8 @@
       <c r="BU14" s="11">
         <v>12.6</v>
       </c>
-      <c r="BW14" s="1">
-        <v>2012</v>
-      </c>
-      <c r="BX14" s="23">
-        <f>SUM(BH5:BH90)</f>
-        <v>1546294</v>
-      </c>
-      <c r="BY14" s="23">
-        <f>AVERAGE(BI5:BI90)</f>
-        <v>12.007462686567166</v>
-      </c>
     </row>
-    <row r="15" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
@@ -5468,19 +4773,8 @@
       <c r="BU15" s="11">
         <v>7.4</v>
       </c>
-      <c r="BW15" s="1">
-        <v>2013</v>
-      </c>
-      <c r="BX15" s="23">
-        <f>SUM(BO5:BO90)</f>
-        <v>1591871</v>
-      </c>
-      <c r="BY15" s="23">
-        <f>AVERAGE(BP6:BP90)</f>
-        <v>12.09090909090909</v>
-      </c>
     </row>
-    <row r="16" spans="1:77" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
@@ -17871,7 +17165,6 @@
     <mergeCell ref="BO3:BU3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>